--- a/hoy/fallos/timeout-JAMU.xlsx
+++ b/hoy/fallos/timeout-JAMU.xlsx
@@ -15,30 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>JAM_PROG</t>
-  </si>
-  <si>
-    <t>JAM_MDVL</t>
-  </si>
-  <si>
-    <t>JAM_CVVM</t>
   </si>
   <si>
     <t>CMV_CARL</t>
   </si>
   <si>
-    <t>CAY_CVVM</t>
-  </si>
-  <si>
-    <t>JAM_CARL</t>
+    <t>CMV_MOBY</t>
   </si>
   <si>
     <t>JAM_CTG2</t>
-  </si>
-  <si>
-    <t>JAM_CTG1</t>
   </si>
 </sst>
 </file>
@@ -387,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>502</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,51 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
